--- a/data/trans_orig/P1420-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7984</v>
+        <v>8478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006721905068605544</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002010676896251616</v>
+        <v>0.002007679558651008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01826102533072645</v>
+        <v>0.01939214952174145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>971</v>
+        <v>1095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9796</v>
+        <v>10164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01275354059066854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003089314703072478</v>
+        <v>0.003480980420134549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03115158420195917</v>
+        <v>0.03232362724132005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -784,19 +784,19 @@
         <v>6949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2983</v>
+        <v>2942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13913</v>
+        <v>13877</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009245201171184525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003968689746377244</v>
+        <v>0.003914597323227426</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01850926314859844</v>
+        <v>0.0184610283070437</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>434272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>429227</v>
+        <v>428733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436332</v>
+        <v>436333</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9932780949313944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9817389746692733</v>
+        <v>0.9806078504782578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979893231037484</v>
+        <v>0.997992320441349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -834,19 +834,19 @@
         <v>310444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304658</v>
+        <v>304290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313483</v>
+        <v>313359</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9872464594093314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9688484157980414</v>
+        <v>0.9676763727586798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9969106852969275</v>
+        <v>0.9965190195798653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -855,19 +855,19 @@
         <v>744716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>737752</v>
+        <v>737788</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748682</v>
+        <v>748723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9907547988288155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9814907368514015</v>
+        <v>0.9815389716929566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9960313102536227</v>
+        <v>0.9960854026767725</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7267</v>
+        <v>7240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005062108760650479</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01735131615299187</v>
+        <v>0.01728744209926899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -980,19 +980,19 @@
         <v>6171</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13699</v>
+        <v>11856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01825737747883149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006660775421516451</v>
+        <v>0.00664567163091597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04052820353693153</v>
+        <v>0.03507623899555029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1001,19 +1001,19 @@
         <v>8291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3409</v>
+        <v>3917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15341</v>
+        <v>16010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01095547529899498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004504727457561169</v>
+        <v>0.005176008997578963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02027051859007376</v>
+        <v>0.02115515099311014</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>416677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>411530</v>
+        <v>411557</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1039,7 +1039,7 @@
         <v>0.9949378912393495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9826486838470081</v>
+        <v>0.9827125579007309</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>331840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>324312</v>
+        <v>326155</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335760</v>
+        <v>335765</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9817426225211685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9594717964630685</v>
+        <v>0.9649237610044503</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9933392245784836</v>
+        <v>0.9933543283690841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -1072,19 +1072,19 @@
         <v>748517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741467</v>
+        <v>740798</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753399</v>
+        <v>752891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.989044524701005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9797294814099263</v>
+        <v>0.9788448490068898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9954952725424389</v>
+        <v>0.994823991002421</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>4072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>963</v>
+        <v>1031</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9085</v>
+        <v>10034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006469264390595443</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00152963362015605</v>
+        <v>0.001638029917299702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01443481983384983</v>
+        <v>0.01594126253031696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1197,19 +1197,19 @@
         <v>3863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8816</v>
+        <v>8834</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0148485578133336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003679308348785786</v>
+        <v>0.003691815046855038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03389202384079536</v>
+        <v>0.03395968167138165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>7934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3780</v>
+        <v>3129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15067</v>
+        <v>16063</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008919621213800482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004249250710185853</v>
+        <v>0.003517631678330357</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01693776652290402</v>
+        <v>0.01805749545449778</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>625343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620330</v>
+        <v>619381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628452</v>
+        <v>628384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9935307356094045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9855651801661501</v>
+        <v>0.9840587374696809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998470366379844</v>
+        <v>0.9983619700827002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -1268,19 +1268,19 @@
         <v>256266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251313</v>
+        <v>251295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259172</v>
+        <v>259169</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9851514421866664</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9661079761592046</v>
+        <v>0.9660403183286184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963206916512142</v>
+        <v>0.996308184953145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>827</v>
@@ -1289,19 +1289,19 @@
         <v>881610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>874477</v>
+        <v>873481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>885764</v>
+        <v>886415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9910803787861995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.983062233477096</v>
+        <v>0.9819425045455021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957507492898141</v>
+        <v>0.9964823683216696</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>12332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6309</v>
+        <v>6840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20651</v>
+        <v>20871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01063992922951631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005443142973962044</v>
+        <v>0.005901223039652083</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01781744592970164</v>
+        <v>0.01800736884215359</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1414,19 +1414,19 @@
         <v>8020</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3211</v>
+        <v>3241</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16940</v>
+        <v>17397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01048687259222949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004199339443486851</v>
+        <v>0.004237611869144968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02215158110946533</v>
+        <v>0.02274981999361444</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1435,19 +1435,19 @@
         <v>20351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13182</v>
+        <v>12699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32188</v>
+        <v>30567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01057908611764893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006852384564994952</v>
+        <v>0.00660131639826691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01673202785647228</v>
+        <v>0.01588929418413263</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1146677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1138358</v>
+        <v>1138138</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1152700</v>
+        <v>1152169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893600707704837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9821825540702985</v>
+        <v>0.9819926311578466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9945568570260379</v>
+        <v>0.9940987769603483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>703</v>
@@ -1485,19 +1485,19 @@
         <v>756702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>747782</v>
+        <v>747325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>761511</v>
+        <v>761481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9895131274077705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9778484188905349</v>
+        <v>0.9772501800063855</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9958006605565132</v>
+        <v>0.9957623881308549</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1774</v>
@@ -1506,19 +1506,19 @@
         <v>1903380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1891543</v>
+        <v>1893164</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1910549</v>
+        <v>1911032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9894209138823511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9832679721435282</v>
+        <v>0.9841107058158679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931476154350052</v>
+        <v>0.9933986836017332</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>5544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2081</v>
+        <v>2137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12366</v>
+        <v>12324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01085877983761931</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004076496430126784</v>
+        <v>0.00418597770814349</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02421882092088474</v>
+        <v>0.02413706247511836</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1631,19 +1631,19 @@
         <v>16204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9407</v>
+        <v>9502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25458</v>
+        <v>26245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02131448349027344</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01237326704143526</v>
+        <v>0.0124983871066649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0334866684450456</v>
+        <v>0.03452236416389832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1652,19 +1652,19 @@
         <v>21749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14489</v>
+        <v>14082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34005</v>
+        <v>31788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01711361434277135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01140084774132341</v>
+        <v>0.01108108136446102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02675772959838308</v>
+        <v>0.0250129608759635</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>505052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>498230</v>
+        <v>498272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508515</v>
+        <v>508459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9891412201623807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9757811790791152</v>
+        <v>0.9758629375248817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959235035698731</v>
+        <v>0.9958140222918566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>687</v>
@@ -1702,19 +1702,19 @@
         <v>744042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>734788</v>
+        <v>734001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>750839</v>
+        <v>750744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9786855165097266</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9665133315549541</v>
+        <v>0.9654776358361016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9876267329585646</v>
+        <v>0.987501612893335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1169</v>
@@ -1723,19 +1723,19 @@
         <v>1249094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1236838</v>
+        <v>1239055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1256354</v>
+        <v>1256761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9828863856572286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9732422704016164</v>
+        <v>0.9749870391240366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9885991522586766</v>
+        <v>0.988918918635539</v>
       </c>
     </row>
     <row r="18">
@@ -1840,19 +1840,19 @@
         <v>17513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11205</v>
+        <v>10850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27895</v>
+        <v>27553</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01578649181490073</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01010066156024402</v>
+        <v>0.0097806615711378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02514500795850008</v>
+        <v>0.02483685332668719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1861,19 +1861,19 @@
         <v>17513</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10561</v>
+        <v>11124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28453</v>
+        <v>27299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01272514334653285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007673824011207515</v>
+        <v>0.008083222073141421</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02067460122322746</v>
+        <v>0.019836169563106</v>
       </c>
     </row>
     <row r="20">
@@ -1903,19 +1903,19 @@
         <v>1091838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1081456</v>
+        <v>1081798</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1098146</v>
+        <v>1098501</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9842135081850992</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9748549920414999</v>
+        <v>0.9751631466733127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.989899338439756</v>
+        <v>0.9902193384288622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1292</v>
@@ -1924,19 +1924,19 @@
         <v>1358720</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1347780</v>
+        <v>1348934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1365672</v>
+        <v>1365109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9872748566534671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9793253987767725</v>
+        <v>0.9801638304368939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9923261759887925</v>
+        <v>0.9919167779268585</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>27007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17372</v>
+        <v>17493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38358</v>
+        <v>38728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007892365592136836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005076578365696451</v>
+        <v>0.005112130899953662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01120957589880934</v>
+        <v>0.01131776728682144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2049,19 +2049,19 @@
         <v>55781</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42796</v>
+        <v>40348</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72533</v>
+        <v>72305</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01572654588170338</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01206583224126608</v>
+        <v>0.01137538505812617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02044969268086759</v>
+        <v>0.02038518336330136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -2070,19 +2070,19 @@
         <v>82788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65502</v>
+        <v>65111</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101859</v>
+        <v>102886</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01187971930793441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009399307064261132</v>
+        <v>0.009343169881019799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01461636108788724</v>
+        <v>0.01476368604514972</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>3394903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3383552</v>
+        <v>3383182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3404538</v>
+        <v>3404417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9921076344078632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9887904241011903</v>
+        <v>0.9886822327131786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9949234216343035</v>
+        <v>0.9948878691000463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3235</v>
@@ -2120,19 +2120,19 @@
         <v>3491134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3474382</v>
+        <v>3474610</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3504119</v>
+        <v>3506567</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9842734541182966</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9795503073191324</v>
+        <v>0.9796148166366987</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9879341677587339</v>
+        <v>0.9886246149418737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6414</v>
@@ -2141,19 +2141,19 @@
         <v>6886037</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6866966</v>
+        <v>6865939</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6903323</v>
+        <v>6903714</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9881202806920656</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9853836389121129</v>
+        <v>0.9852363139548503</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.990600692935739</v>
+        <v>0.9906568301189802</v>
       </c>
     </row>
     <row r="24">
@@ -2487,19 +2487,19 @@
         <v>10720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5111</v>
+        <v>5064</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22208</v>
+        <v>21087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02498318198117781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01191044205562064</v>
+        <v>0.01180196782234436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05175671951456444</v>
+        <v>0.04914416470028515</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>10720</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4927</v>
+        <v>4916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22047</v>
+        <v>21447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01381192600149344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006347861107489745</v>
+        <v>0.00633438935802601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02840538850632396</v>
+        <v>0.02763220484779517</v>
       </c>
     </row>
     <row r="5">
@@ -2550,19 +2550,19 @@
         <v>418372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406884</v>
+        <v>408005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423981</v>
+        <v>424028</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9750168180188222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9482432804854356</v>
+        <v>0.950855835299715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9880895579443794</v>
+        <v>0.9881980321776557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>332</v>
@@ -2584,19 +2584,19 @@
         <v>765427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754100</v>
+        <v>754700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771220</v>
+        <v>771231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9861880739985066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9715946114936761</v>
+        <v>0.9723677951522051</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9936521388925103</v>
+        <v>0.993665610641974</v>
       </c>
     </row>
     <row r="6">
@@ -2688,19 +2688,19 @@
         <v>4450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1036</v>
+        <v>974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10984</v>
+        <v>10074</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01179557278399062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002745951791514171</v>
+        <v>0.002581823494784407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02911784325989119</v>
+        <v>0.02670468442821049</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7653</v>
+        <v>6780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005940075217094593</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02055737928656187</v>
+        <v>0.01821208379724076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2730,19 +2730,19 @@
         <v>6661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2889</v>
+        <v>3032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14217</v>
+        <v>14322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008887174583345848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003854130009709549</v>
+        <v>0.004045858079706552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01896875896252232</v>
+        <v>0.01910884688503119</v>
       </c>
     </row>
     <row r="8">
@@ -2759,19 +2759,19 @@
         <v>372777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366243</v>
+        <v>367153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376191</v>
+        <v>376253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9882044272160094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9708821567401088</v>
+        <v>0.9732953155717897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9972540482084858</v>
+        <v>0.9974181765052156</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -2780,7 +2780,7 @@
         <v>370062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>364620</v>
+        <v>365493</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>372273</v>
@@ -2789,7 +2789,7 @@
         <v>0.9940599247829054</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9794426207134379</v>
+        <v>0.9817879162027592</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2801,19 +2801,19 @@
         <v>742839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>735283</v>
+        <v>735178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746611</v>
+        <v>746468</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911128254166541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9810312410374777</v>
+        <v>0.9808911531149684</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961458699902904</v>
+        <v>0.9959541419202931</v>
       </c>
     </row>
     <row r="9">
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7193</v>
+        <v>6745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003719936369439519</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01378129226574541</v>
+        <v>0.01292379347700967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5231</v>
+        <v>5224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006255911118473712</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03149169516294316</v>
+        <v>0.0314461218213836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2947,19 +2947,19 @@
         <v>2981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8711</v>
+        <v>8601</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004332234175820868</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001146976544910881</v>
+        <v>0.00114086156630335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01266108325426342</v>
+        <v>0.01250010296117211</v>
       </c>
     </row>
     <row r="11">
@@ -2976,7 +2976,7 @@
         <v>519973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514721</v>
+        <v>515169</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521914</v>
@@ -2985,7 +2985,7 @@
         <v>0.9962800636305604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9862187077342545</v>
+        <v>0.9870762065229901</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>165084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160892</v>
+        <v>160899</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -3006,7 +3006,7 @@
         <v>0.9937440888815263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9685083048370569</v>
+        <v>0.9685538781786164</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3018,19 +3018,19 @@
         <v>685055</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>679325</v>
+        <v>679435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687247</v>
+        <v>687251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9956677658241792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9873389167457367</v>
+        <v>0.987499897038828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9988530234550891</v>
+        <v>0.9988591384336967</v>
       </c>
     </row>
     <row r="12">
@@ -3122,19 +3122,19 @@
         <v>8291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3834</v>
+        <v>3614</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16665</v>
+        <v>16323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007211421026157466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003335243161076888</v>
+        <v>0.003143461842841622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01449584625198374</v>
+        <v>0.01419848571014804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3143,19 +3143,19 @@
         <v>10275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5153</v>
+        <v>5092</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18712</v>
+        <v>18023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0124412262024856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006238974315258381</v>
+        <v>0.006165544275191634</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02265701763795612</v>
+        <v>0.02182311582493873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3164,19 +3164,19 @@
         <v>18565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11219</v>
+        <v>11399</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29845</v>
+        <v>27946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009397773204839427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005678901720656772</v>
+        <v>0.005770081064283458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01510763635952848</v>
+        <v>0.0141461541197584</v>
       </c>
     </row>
     <row r="14">
@@ -3193,19 +3193,19 @@
         <v>1141347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132973</v>
+        <v>1133315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145804</v>
+        <v>1146024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9927885789738425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9855041537480163</v>
+        <v>0.9858015142898519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966647568389232</v>
+        <v>0.9968565381571584</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>788</v>
@@ -3214,19 +3214,19 @@
         <v>815601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>807164</v>
+        <v>807853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>820723</v>
+        <v>820784</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9875587737975144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9773429823620439</v>
+        <v>0.9781768841750613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9937610256847417</v>
+        <v>0.9938344557248083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -3235,19 +3235,19 @@
         <v>1956949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1945669</v>
+        <v>1947568</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1964295</v>
+        <v>1964115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9906022267951605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9848923636404715</v>
+        <v>0.9858538458802416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9943210982793432</v>
+        <v>0.9942299189357167</v>
       </c>
     </row>
     <row r="15">
@@ -3339,19 +3339,19 @@
         <v>8132</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3816</v>
+        <v>3897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16080</v>
+        <v>16065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01310079544390122</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006148445445255001</v>
+        <v>0.006278967635851376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02590537852298785</v>
+        <v>0.02588170270361665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3360,19 +3360,19 @@
         <v>13062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7067</v>
+        <v>6787</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22962</v>
+        <v>22687</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01769370320326141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009572641961421732</v>
+        <v>0.009193885268848338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0311035714298522</v>
+        <v>0.03073158796168198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3381,19 +3381,19 @@
         <v>21194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12860</v>
+        <v>13064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32604</v>
+        <v>33324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01559587411880776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009463154137727121</v>
+        <v>0.009613656177095491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0239918686528959</v>
+        <v>0.02452219862505008</v>
       </c>
     </row>
     <row r="17">
@@ -3410,19 +3410,19 @@
         <v>612574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>604626</v>
+        <v>604641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>616890</v>
+        <v>616809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9868992045560988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974094621477012</v>
+        <v>0.9741182972963832</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9938515545547449</v>
+        <v>0.9937210323641487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>688</v>
@@ -3431,19 +3431,19 @@
         <v>725182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>715282</v>
+        <v>715557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731177</v>
+        <v>731457</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9823062967967386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9688964285701479</v>
+        <v>0.9692684120383182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9904273580385784</v>
+        <v>0.9908061147311517</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1277</v>
@@ -3452,19 +3452,19 @@
         <v>1337756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1326346</v>
+        <v>1325626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1346090</v>
+        <v>1345886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9844041258811922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9760081313471042</v>
+        <v>0.9754778013749501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.990536845862273</v>
+        <v>0.9903863438229045</v>
       </c>
     </row>
     <row r="18">
@@ -3569,19 +3569,19 @@
         <v>19362</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11589</v>
+        <v>11596</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31379</v>
+        <v>31364</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01789423307801854</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0107101601961907</v>
+        <v>0.01071672722643656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02899988840499367</v>
+        <v>0.02898672079238887</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -3590,19 +3590,19 @@
         <v>19362</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11249</v>
+        <v>11785</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31662</v>
+        <v>31892</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01414141772496284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008215870293391551</v>
+        <v>0.008607502061252971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02312491349407083</v>
+        <v>0.02329316407574636</v>
       </c>
     </row>
     <row r="20">
@@ -3632,19 +3632,19 @@
         <v>1062663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1050646</v>
+        <v>1050661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1070436</v>
+        <v>1070429</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9821057669219815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9710001115950063</v>
+        <v>0.9710132792076112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9892898398038094</v>
+        <v>0.9892832727735635</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1248</v>
@@ -3653,19 +3653,19 @@
         <v>1349808</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1337508</v>
+        <v>1337278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357921</v>
+        <v>1357385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9858585822750372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9768750865059291</v>
+        <v>0.9767068359242536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9917841297066085</v>
+        <v>0.991392497938747</v>
       </c>
     </row>
     <row r="21">
@@ -3757,19 +3757,19 @@
         <v>33533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22547</v>
+        <v>23091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48017</v>
+        <v>48329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009904371098895646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00665933373062522</v>
+        <v>0.006820243476911699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01418225435955975</v>
+        <v>0.01427448083806945</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -3778,19 +3778,19 @@
         <v>45950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34019</v>
+        <v>32941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62208</v>
+        <v>60715</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.013011048564442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009632842550125552</v>
+        <v>0.009327501020585816</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0176147128412756</v>
+        <v>0.01719199215182163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -3799,19 +3799,19 @@
         <v>79483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63895</v>
+        <v>62683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104371</v>
+        <v>100978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01149046692991115</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009236929515725481</v>
+        <v>0.009061754258523472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01508842946921636</v>
+        <v>0.01459779412071499</v>
       </c>
     </row>
     <row r="23">
@@ -3828,19 +3828,19 @@
         <v>3352189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3337705</v>
+        <v>3337393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3363175</v>
+        <v>3362631</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9900956289011044</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9858177456404404</v>
+        <v>0.9857255191619304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9933406662693749</v>
+        <v>0.9931797565230882</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3286</v>
@@ -3849,19 +3849,19 @@
         <v>3485646</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3469388</v>
+        <v>3470881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3497577</v>
+        <v>3498655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.986988951435558</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9823852871587249</v>
+        <v>0.9828080078481785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9903671574498752</v>
+        <v>0.9906724989794142</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6480</v>
@@ -3870,19 +3870,19 @@
         <v>6837835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6812947</v>
+        <v>6816340</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6853423</v>
+        <v>6854635</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9885095330700888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9849115705307837</v>
+        <v>0.985402205879285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9907630704842746</v>
+        <v>0.9909382457414765</v>
       </c>
     </row>
     <row r="24">
